--- a/InputFiles/TC02_Bento_E2E_Select-Single-Add-To-Cart.xlsx
+++ b/InputFiles/TC02_Bento_E2E_Select-Single-Add-To-Cart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB16C2BE-F198-4335-AA07-98F60731A5C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55989B9-4282-4969-B9F6-FF54BEAE8106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -45,10 +45,13 @@
     <t>dbExcel</t>
   </si>
   <si>
-    <t>TC01_Bento_E2E_Select-All-Add-To-Cart_Neo4jData.xlsx</t>
-  </si>
-  <si>
-    <t>TC01_Bento_E2E_Select-All-Add-To-Cart_WebData.xlsx</t>
+    <t>https://bento-qa.bento-tools.org/</t>
+  </si>
+  <si>
+    <t>TC02_Bento_E2E_Select-Single-Add-To-Cart_Manifest.xlsx</t>
+  </si>
+  <si>
+    <t>TC02_Bento_E2E_Select-Single-Add-To-Cart_WebData.xlsx</t>
   </si>
   <si>
     <t>MATCH (ss:study_subject)
@@ -60,7 +63,7 @@
 MATCH (ss)&lt;-[:diagnosis_of_study_subject]-(d)
 MATCH (d)&lt;-[:tp_of_diagnosis]-(tp)
 MATCH (ss)&lt;-[:demographic_of_study_subject]-(demo)
-WHERE ss.disease_subtype IN ["Tubular Carcinoma"] and d.tumor_size_group In ["(3,4]"] and d.er_status In ["Negative"]and d.pr_status In ["Positive"] and tp.endocrine_therapy_type IN ["Other"]  and head(labels(samp)) IN ["sample"]
+WHERE ss.disease_subtype IN ["Tubular Carcinoma"] and d.tumor_size_group In ["(3,4]"] and d.er_status In ["Positive"]and d.pr_status In ["Positive"] 
 return DISTINCT ss.study_subject_id as `Case ID`,
    p.program_acronym as `Program Code`,
     p.program_id as Program_ID,
@@ -72,9 +75,6 @@
    d.pr_status AS `PR Status`,
    demo.age_at_index AS `Age (years)`,
 	demo.survival_time AS `Survival (days)`</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://qa.bento-tools.org/</t>
   </si>
 </sst>
 </file>
@@ -457,19 +457,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.81640625" customWidth="1"/>
-    <col min="3" max="3" width="70.26953125" customWidth="1"/>
-    <col min="4" max="4" width="52.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.85546875" customWidth="1"/>
+    <col min="3" max="3" width="70.28515625" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,24 +483,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="377" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="375" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="/" display="https://caninecommons.cancer.gov/#/" xr:uid="{EE6720A7-C9D8-4EE2-8E31-C0EFEB18C846}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{1DE3EBB2-AC66-413A-B61B-429BDD96836B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>

--- a/InputFiles/TC02_Bento_E2E_Select-Single-Add-To-Cart.xlsx
+++ b/InputFiles/TC02_Bento_E2E_Select-Single-Add-To-Cart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55989B9-4282-4969-B9F6-FF54BEAE8106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A19F3C-9795-4DA8-8788-42A9EEE06230}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -458,7 +458,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
